--- a/biology/Zoologie/Conus_pulicarius/Conus_pulicarius.xlsx
+++ b/biology/Zoologie/Conus_pulicarius/Conus_pulicarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus pulicarius est un gastéropode faisant partie de la famille des conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été décrit par Hwass in Bruguière en 1792.
 Coquille épaisse et lourde à spire basse avec un dernier tour court et gros se rétrécissant fortement à la base. L'épaulement est large et présente des tubercules proéminents arrondis. Couleur  blanche, parfois légèrement orange pâle, à points allongés noirs voire brun rougeâtre.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien et Pacifique occidental (Taïwan).
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eaux peu profondes.
 </t>
@@ -605,10 +623,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Conus fustigatus,Hwass in Bruguière (1792)[1]
-Cucullus punctulatus, Röding (1798)[1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus fustigatus,Hwass in Bruguière (1792)
+Cucullus punctulatus, Röding (1798)</t>
         </is>
       </c>
     </row>
@@ -636,7 +656,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage a reçu son nom à la fin du XVIIIe siècle, lorsque les puces étaient plus actives chez l'homme qu'aujourd'hui.
 </t>
